--- a/Excel/TI/Mon_TI_2024_04_10.xlsx
+++ b/Excel/TI/Mon_TI_2024_04_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,16 @@
           <t>M+2_team</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>M+3_H_A</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>M+3_team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -618,16 +628,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>57.4</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>54.5</v>
+        <v>53.9</v>
       </c>
       <c r="H2" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="I2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -639,33 +649,33 @@
         <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
+        <v>55</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46</v>
+      </c>
+      <c r="P2" t="n">
         <v>64</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>67</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>63</v>
       </c>
-      <c r="Q2" t="n">
-        <v>48</v>
-      </c>
-      <c r="R2" t="n">
-        <v>45</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="U2" t="n">
-        <v>-7.9</v>
+        <v>-7.8</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
@@ -712,6 +722,16 @@
       <c r="AF2" t="inlineStr">
         <is>
           <t>SAS</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>MEM</t>
         </is>
       </c>
     </row>
@@ -726,7 +746,11 @@
           <t>Victor Wembanyama</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>C</t>
@@ -738,16 +762,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43.2</v>
+        <v>44.2</v>
       </c>
       <c r="G3" t="n">
-        <v>40.7</v>
+        <v>39.1</v>
       </c>
       <c r="H3" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -759,35 +783,33 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" t="n">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="n">
         <v>36</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>50</v>
       </c>
-      <c r="P3" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>30</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.6</v>
+        <v>-5</v>
       </c>
       <c r="V3" t="n">
         <v>8</v>
@@ -834,6 +856,16 @@
       <c r="AF3" t="inlineStr">
         <is>
           <t>DEN</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>DET</t>
         </is>
       </c>
     </row>
@@ -845,13 +877,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -860,93 +892,91 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>35.2</v>
+        <v>39.2</v>
       </c>
       <c r="G4" t="n">
-        <v>34.3</v>
+        <v>37.1</v>
       </c>
       <c r="H4" t="n">
-        <v>32.9</v>
+        <v>36.6</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P4" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="n">
+        <v>35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
         <v>43</v>
       </c>
-      <c r="R4" t="n">
-        <v>34</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z4" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>16</v>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>29</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -956,6 +986,16 @@
       <c r="AF4" t="inlineStr">
         <is>
           <t>ATL</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
@@ -967,13 +1007,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -982,43 +1022,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>32.4</v>
       </c>
       <c r="G5" t="n">
-        <v>34.1</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
-        <v>36.2</v>
+        <v>33</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
       <c r="N5" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O5" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="P5" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1026,13 +1066,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.1</v>
+        <v>-1.1</v>
       </c>
       <c r="U5" t="n">
-        <v>-2.7</v>
+        <v>-2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -1050,7 +1090,7 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1058,15 +1098,17 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD5" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -1076,6 +1118,16 @@
       <c r="AF5" t="inlineStr">
         <is>
           <t>ATL</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
@@ -1087,58 +1139,54 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Donovan Mitchell</t>
+          <t>Evan Mobley</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>18.6</v>
+        <v>32.8</v>
       </c>
       <c r="G6" t="n">
-        <v>33.7</v>
+        <v>32.8</v>
       </c>
       <c r="H6" t="n">
-        <v>37.9</v>
+        <v>32.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>34</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14</v>
       </c>
       <c r="P6" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="n">
-        <v>17</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="R6" t="n">
+        <v>41</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1146,7 +1194,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.9</v>
+        <v>-1.2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1162,11 +1210,13 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z6" t="n">
-        <v>30</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1196,65 +1246,79 @@
       <c r="AF6" t="inlineStr">
         <is>
           <t>IND</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Evan Mobley</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>37.8</v>
+        <v>37.2</v>
       </c>
       <c r="G7" t="n">
-        <v>33.1</v>
+        <v>31.7</v>
       </c>
       <c r="H7" t="n">
-        <v>32.7</v>
+        <v>36.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O7" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="R7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1262,10 +1326,14 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-1.7</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+        <v>1.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1273,18 +1341,16 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>19</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1313,72 +1379,80 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Donovan Mitchell</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>17.6</v>
       </c>
       <c r="G8" t="n">
-        <v>32.5</v>
+        <v>30.8</v>
       </c>
       <c r="H8" t="n">
-        <v>36.1</v>
+        <v>37.3</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>7</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3</v>
-      </c>
       <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="P8" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>23</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>15</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1386,14 +1460,10 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
+        <v>5.5</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>vs</t>
@@ -1401,7 +1471,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1410,7 +1480,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1439,19 +1509,29 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>CHA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1466,51 +1546,43 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>27</v>
+      </c>
+      <c r="O9" t="n">
         <v>35</v>
       </c>
-      <c r="G9" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>46</v>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q9" t="n">
+        <v>41</v>
+      </c>
+      <c r="R9" t="n">
+        <v>14</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1518,13 +1590,13 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-0.7</v>
+        <v>0.9</v>
       </c>
       <c r="U9" t="n">
-        <v>-7.8</v>
+        <v>3.5</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1533,24 +1605,24 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -1569,19 +1641,29 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1596,43 +1678,45 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>24.8</v>
+        <v>36.4</v>
       </c>
       <c r="G10" t="n">
         <v>30.4</v>
       </c>
       <c r="H10" t="n">
-        <v>33.2</v>
+        <v>28</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P10" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1640,13 +1724,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="U10" t="n">
-        <v>3.7</v>
+        <v>-8</v>
       </c>
       <c r="V10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1655,24 +1739,24 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1691,19 +1775,29 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -1718,70 +1812,68 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="G11" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="H11" t="n">
-        <v>29.2</v>
+        <v>30.2</v>
       </c>
       <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
         <v>6</v>
       </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O11" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R11" t="n">
+        <v>41</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>-3</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.7</v>
+        <v>4.6</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1790,15 +1882,15 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1817,25 +1909,35 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1844,96 +1946,92 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31.4</v>
+        <v>32.2</v>
       </c>
       <c r="G12" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="H12" t="n">
-        <v>30.2</v>
+        <v>26.8</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" t="n">
         <v>2</v>
       </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N12" t="n">
+        <v>38</v>
       </c>
       <c r="O12" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R12" t="n">
+        <v>32</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD12" t="n">
         <v>24</v>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>13</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z12" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AE12" t="inlineStr">
         <is>
           <t>@</t>
@@ -1941,19 +2039,29 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>MIN</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Khris Middleton</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -1968,96 +2076,92 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25.4</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>28.3</v>
+        <v>26.8</v>
       </c>
       <c r="H13" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
         <v>7</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>28</v>
+      </c>
+      <c r="R13" t="n">
+        <v>24</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>36</v>
-      </c>
-      <c r="P13" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
           <t>@</t>
@@ -2065,19 +2169,29 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>MEM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2086,45 +2200,49 @@
           <t>C</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="F14" t="n">
-        <v>26.4</v>
+        <v>26.6</v>
       </c>
       <c r="G14" t="n">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="H14" t="n">
-        <v>27.9</v>
+        <v>29.9</v>
       </c>
       <c r="I14" t="n">
         <v>15</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O14" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="R14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2132,10 +2250,14 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+        <v>0.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="V14" t="n">
+        <v>13</v>
+      </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2143,7 +2265,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2152,7 +2274,7 @@
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2160,7 +2282,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -2168,79 +2290,91 @@
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>DAL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Terry Rozier</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Nic Claxton</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
+        <v>22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>19</v>
+      </c>
+      <c r="P15" t="n">
         <v>32</v>
       </c>
-      <c r="G15" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>19</v>
-      </c>
-      <c r="O15" t="n">
-        <v>56</v>
-      </c>
-      <c r="P15" t="n">
-        <v>40</v>
-      </c>
       <c r="Q15" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2248,14 +2382,10 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="U15" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="V15" t="n">
-        <v>7</v>
-      </c>
+        <v>-0.4</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2263,7 +2393,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2272,48 +2402,54 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>20</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>29</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>PHI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
+          <t>Khris Middleton</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -2328,58 +2464,60 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>22.4</v>
+        <v>29.2</v>
       </c>
       <c r="G16" t="n">
-        <v>26.5</v>
+        <v>25.5</v>
       </c>
       <c r="H16" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>36</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>28</v>
-      </c>
-      <c r="P16" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>26</v>
-      </c>
-      <c r="R16" t="n">
-        <v>23</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>11</v>
-      </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2387,7 +2525,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2396,7 +2534,7 @@
         </is>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -2404,15 +2542,17 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD16" t="n">
-        <v>2</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -2421,22 +2561,36 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>ORL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Tyler Herro</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>G</t>
@@ -2448,83 +2602,91 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19.8</v>
+        <v>28.6</v>
       </c>
       <c r="G17" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37</v>
+      </c>
+      <c r="O17" t="n">
+        <v>31</v>
+      </c>
+      <c r="P17" t="n">
         <v>26</v>
       </c>
-      <c r="H17" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="V17" t="n">
         <v>5</v>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>32</v>
-      </c>
-      <c r="P17" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>13</v>
-      </c>
-      <c r="R17" t="n">
-        <v>16</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>8</v>
-      </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB17" t="n">
-        <v>24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2538,27 +2700,41 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanovic</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>Terry Rozier</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>G</t>
@@ -2570,43 +2746,45 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>32.4</v>
+        <v>28.4</v>
       </c>
       <c r="G18" t="n">
-        <v>25.6</v>
+        <v>24.3</v>
       </c>
       <c r="H18" t="n">
-        <v>21.3</v>
+        <v>27.7</v>
       </c>
       <c r="I18" t="n">
         <v>14</v>
       </c>
       <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
         <v>4</v>
       </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" t="n">
-        <v>18</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O18" t="n">
         <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="R18" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2614,13 +2792,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>-1.7</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.6</v>
+        <v>-6.4</v>
       </c>
       <c r="V18" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -2629,59 +2807,77 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB18" t="n">
-        <v>17</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>TOR</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Day-To-Day</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2690,58 +2886,60 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17.4</v>
+        <v>23.8</v>
       </c>
       <c r="G19" t="n">
-        <v>25.1</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>37</v>
+      </c>
+      <c r="P19" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>19</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V19" t="n">
         <v>12</v>
       </c>
-      <c r="O19" t="n">
-        <v>34</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>38</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U19" t="n">
-        <v>-8.300000000000001</v>
-      </c>
-      <c r="V19" t="n">
-        <v>13</v>
-      </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2749,12 +2947,12 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z19" t="n">
@@ -2766,15 +2964,17 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD19" t="n">
-        <v>15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
@@ -2783,19 +2983,29 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>James Harden</t>
+          <t>Bogdan Bogdanovic</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2810,58 +3020,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19.4</v>
+        <v>18.4</v>
       </c>
       <c r="G20" t="n">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="H20" t="n">
-        <v>30.1</v>
+        <v>21.1</v>
       </c>
       <c r="I20" t="n">
+        <v>14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>44</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V20" t="n">
         <v>13</v>
       </c>
-      <c r="J20" t="n">
-        <v>6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>19</v>
-      </c>
-      <c r="O20" t="n">
-        <v>9</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>15</v>
-      </c>
-      <c r="R20" t="n">
-        <v>31</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>11</v>
-      </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>vs</t>
@@ -2869,7 +3079,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2878,7 +3088,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -2886,38 +3096,46 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD20" t="n">
+        <v>12</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2932,94 +3150,92 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.6</v>
+        <v>29.4</v>
       </c>
       <c r="G21" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="H21" t="n">
-        <v>28.6</v>
+        <v>21.7</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="Q21" t="n">
+        <v>18</v>
+      </c>
+      <c r="R21" t="n">
+        <v>27</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB21" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD21" t="n">
         <v>17</v>
       </c>
-      <c r="R21" t="n">
-        <v>18</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>13</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z21" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="AE21" t="inlineStr">
         <is>
           <t>@</t>
@@ -3027,25 +3243,35 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>CLE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3054,66 +3280,66 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>24.6</v>
+        <v>27</v>
       </c>
       <c r="G22" t="n">
-        <v>21.3</v>
+        <v>17.1</v>
       </c>
       <c r="H22" t="n">
-        <v>21.1</v>
+        <v>19.2</v>
       </c>
       <c r="I22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
+        <v>40</v>
+      </c>
+      <c r="O22" t="n">
         <v>18</v>
       </c>
-      <c r="O22" t="n">
-        <v>27</v>
-      </c>
       <c r="P22" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>24</v>
+      </c>
+      <c r="R22" t="n">
         <v>25</v>
       </c>
-      <c r="Q22" t="n">
-        <v>9</v>
-      </c>
-      <c r="R22" t="n">
-        <v>44</v>
-      </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>-1.9</v>
+        <v>0.4</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3</v>
+        <v>3.3</v>
       </c>
       <c r="V22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3122,47 +3348,61 @@
         </is>
       </c>
       <c r="Z22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD22" t="n">
         <v>10</v>
       </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD22" t="n">
-        <v>17</v>
-      </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>G</t>
@@ -3174,22 +3414,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>17.4</v>
+        <v>25.4</v>
       </c>
       <c r="G23" t="n">
-        <v>13.7</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>18.7</v>
+        <v>37.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3197,61 +3437,71 @@
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB23" t="n">
         <v>24</v>
       </c>
-      <c r="O23" t="n">
-        <v>25</v>
-      </c>
-      <c r="P23" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9</v>
-      </c>
-      <c r="R23" t="n">
-        <v>6</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
-      <c r="V23" t="n">
-        <v>9</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB23" t="n">
-        <v>10</v>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>-</t>
@@ -3264,27 +3514,41 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gordon Hayward</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>F</t>
@@ -3296,45 +3560,53 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>34.6</v>
       </c>
       <c r="G24" t="n">
-        <v>9.699999999999999</v>
+        <v>34.1</v>
       </c>
       <c r="H24" t="n">
-        <v>16.4</v>
+        <v>37.4</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O24" t="n">
-        <v>13</v>
-      </c>
-      <c r="P24" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>21</v>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3342,13 +3614,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.2</v>
+        <v>-2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>-5.6</v>
+        <v>-0.1</v>
       </c>
       <c r="V24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -3357,26 +3629,24 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB24" t="n">
+        <v>55</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -3395,19 +3665,29 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>HOU</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Scottie Barnes</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3417,7 +3697,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3426,13 +3706,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>25.4</v>
+        <v>33.2</v>
       </c>
       <c r="G25" t="n">
-        <v>35</v>
+        <v>33.1</v>
       </c>
       <c r="H25" t="n">
-        <v>37.6</v>
+        <v>34.1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -3476,35 +3756,35 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>-0.8</v>
+        <v>-2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="V25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z25" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -3512,7 +3792,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -3531,19 +3811,29 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>MIA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kawhi Leonard</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3553,7 +3843,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3562,25 +3852,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>34.6</v>
+        <v>30.6</v>
       </c>
       <c r="G26" t="n">
-        <v>34.1</v>
+        <v>32.5</v>
       </c>
       <c r="H26" t="n">
-        <v>37.4</v>
+        <v>30.7</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
         <v>3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -3595,37 +3885,39 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>28</v>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q26" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="R26" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>-2.5</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.1</v>
+        <v>3.8</v>
       </c>
       <c r="V26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3634,15 +3926,17 @@
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB26" t="n">
-        <v>55</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -3661,19 +3955,29 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>DEN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Scottie Barnes</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3683,7 +3987,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3692,13 +3996,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>33.2</v>
+        <v>27.8</v>
       </c>
       <c r="G27" t="n">
-        <v>33.1</v>
+        <v>31.1</v>
       </c>
       <c r="H27" t="n">
-        <v>34.1</v>
+        <v>35</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -3746,13 +4050,13 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>-2.3</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="n">
-        <v>7.4</v>
+        <v>-1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -3761,7 +4065,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3770,15 +4074,17 @@
         </is>
       </c>
       <c r="Z27" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB27" t="n">
-        <v>29</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3792,24 +4098,34 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>PHX</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3819,7 +4135,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3828,87 +4144,83 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>30.6</v>
+        <v>28.6</v>
       </c>
       <c r="G28" t="n">
-        <v>32.5</v>
+        <v>29.7</v>
       </c>
       <c r="H28" t="n">
-        <v>30.7</v>
+        <v>29</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
       </c>
       <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
         <v>2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="O28" t="n">
+        <v>17</v>
+      </c>
+      <c r="P28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q28" t="n">
         <v>66</v>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>28</v>
-      </c>
       <c r="R28" t="n">
+        <v>12</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="V28" t="n">
         <v>10</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V28" t="n">
-        <v>8</v>
-      </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z28" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB28" t="n">
+        <v>37</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -3922,24 +4234,34 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3949,7 +4271,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3958,25 +4280,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>31.1</v>
+        <v>24.2</v>
       </c>
       <c r="H29" t="n">
-        <v>35</v>
+        <v>28.6</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3986,25 +4308,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="O29" t="n">
+        <v>27</v>
+      </c>
+      <c r="P29" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>34</v>
+      </c>
+      <c r="R29" t="n">
+        <v>33</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -4012,13 +4326,13 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.3</v>
+        <v>-1.7</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.8</v>
+        <v>0.3</v>
       </c>
       <c r="V29" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -4027,26 +4341,24 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z29" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB29" t="n">
+        <v>34</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -4060,24 +4372,34 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>MIL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tyler Herro</t>
+          <t>Gordon Hayward</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4087,7 +4409,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4096,22 +4418,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>28.4</v>
+        <v>7.2</v>
       </c>
       <c r="G30" t="n">
-        <v>22.3</v>
+        <v>9.4</v>
       </c>
       <c r="H30" t="n">
-        <v>26.8</v>
+        <v>16.3</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4129,20 +4451,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P30" t="n">
+        <v>12</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R30" t="n">
+        <v>13</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -4150,13 +4468,13 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="U30" t="n">
-        <v>5.3</v>
+        <v>-5.5</v>
       </c>
       <c r="V30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -4165,47 +4483,55 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
           <t>DAL</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>TOR</t>
         </is>
       </c>
     </row>
